--- a/rfiltrohp.xlsx
+++ b/rfiltrohp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,507 +366,512 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>16568365512.10249</v>
+        <v>16566618003.51774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>16679336519.90174</v>
+        <v>16677602469.97003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>16790295336.76009</v>
+        <v>16788574866.83619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>16901215085.39796</v>
+        <v>16899508558.61152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>17012052689.73844</v>
+        <v>17010360830.47109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>17122752393.31813</v>
+        <v>17121076405.7123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>17233251091.73077</v>
+        <v>17231592777.17987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>17343489844.37364</v>
+        <v>17341851717.91014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>17453425443.3816</v>
+        <v>17451810848.83771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>17563036515.29245</v>
+        <v>17561449739.05903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>17672322787.23392</v>
+        <v>17670769170.3849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>17781303509.30848</v>
+        <v>17779789557.79379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>17889996755.10942</v>
+        <v>17888530247.64497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>17998413536.30218</v>
+        <v>17997003629.50544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>18106586033.24821</v>
+        <v>18105243363.47902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>18214561871.78517</v>
+        <v>18213298653.05588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>18322407985.12167</v>
+        <v>18321238102.33812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18430203912.35502</v>
+        <v>18429143009.04007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>18538033400.52449</v>
+        <v>18537098960.05988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>18645974342.06145</v>
+        <v>18645185761.36164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>18754089978.80153</v>
+        <v>18753468633.20538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>18862418481.25051</v>
+        <v>18861987779.28386</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>18970984922.62531</v>
+        <v>18970770349.14995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>19079809469.30526</v>
+        <v>19079838615.42881</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>19188920823.03971</v>
+        <v>19189223401.01654</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>19298369794.01033</v>
+        <v>19298977635.21755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>19408253242.9556</v>
+        <v>19409200276.88066</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>19518715857.21583</v>
+        <v>19520038069.24537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>19629944789.53801</v>
+        <v>19631680155.19157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>19742170032.61625</v>
+        <v>19744358425.72601</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>19855666416.73818</v>
+        <v>19858349488.93749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>19970750565.33782</v>
+        <v>19973971594.0894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>20087774799.83475</v>
+        <v>20091578502.10624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>20207130870.92225</v>
+        <v>20211563179.5037</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>20329241094.02407</v>
+        <v>20334348893.38192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>20454549037.9441</v>
+        <v>20460379856.42199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>20583522215.3383</v>
+        <v>20590123870.44875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>20716630579.55529</v>
+        <v>20724050773.06182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>20854297087.97573</v>
+        <v>20862582947.44441</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>20996904389.92287</v>
+        <v>21006101953.43132</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>21144802414.77031</v>
+        <v>21154956055.50071</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>21298303407.2229</v>
+        <v>21309455194.74223</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>21457685327.67329</v>
+        <v>21469874322.81966</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>21623207181.75139</v>
+        <v>21636468662.2039</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>21795107831.3759</v>
+        <v>21809472445.19703</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>21973603437.73603</v>
+        <v>21989096282.43527</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>22158886610.97244</v>
+        <v>22175526235.96384</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>22351132201.97095</v>
+        <v>22368929532.68098</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>22550497021.90476</v>
+        <v>22569454204.24282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>22757129728.49002</v>
+        <v>22777238892.92281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>22971196191.30344</v>
+        <v>22992438136.3839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>23192874270.76086</v>
+        <v>23215217066.65823</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>23422343185.09388</v>
+        <v>23445740698.45898</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>23659779381.86223</v>
+        <v>23684169724.2442</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>23905318352.48159</v>
+        <v>23930622255.50058</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>24159008373.30397</v>
+        <v>24185127494.87737</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>24420816877.77538</v>
+        <v>24447632044.90234</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>24690639222.5328</v>
+        <v>24718008617.46632</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>24968326335.54301</v>
+        <v>24996083633.62567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>25253688813.99032</v>
+        <v>25281641283.00174</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>25546495251.79185</v>
+        <v>25574421824.35858</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>25846476832.42706</v>
+        <v>25874126164.87893</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>26153296345.41978</v>
+        <v>26180384878.44448</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>26466555842.9909</v>
+        <v>26492765881.54157</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>26785802441.28135</v>
+        <v>26810780273.42833</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>27110535396.68837</v>
+        <v>27133889473.47782</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>27440234378.33345</v>
+        <v>27461533579.21548</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>27774385250.32615</v>
+        <v>27793157261.34403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>28112477806.1315</v>
+        <v>28128207640.81044</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>28453997804.39157</v>
+        <v>28466126500.12691</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>28798417368.31803</v>
+        <v>28806340894.02554</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>29145194414.33075</v>
+        <v>29148262828.17616</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>29493779468.61581</v>
+        <v>29491296367.76992</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>29843624975.25551</v>
+        <v>29834847282.8099</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>30194204103.63145</v>
+        <v>30178342241.03604</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>30545005733.1017</v>
+        <v>30521224229.72674</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>30895543423.10667</v>
+        <v>30862962017.76097</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>31245364669.25021</v>
+        <v>31203059961.67446</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>31594065407.48614</v>
+        <v>31541073120.95039</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>31941327029.49572</v>
+        <v>31876644948.62643</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>32286937446.02965</v>
+        <v>32209529096.82953</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>32630792058.01791</v>
+        <v>32539591199.67711</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>32972869367.33489</v>
+        <v>32866785367.81075</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>33313220455.63</v>
+        <v>33191144625.04007</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>33651963867.00755</v>
+        <v>33512776824.57395</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>33989268069.07349</v>
+        <v>33831848220.61115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>34325346027.78175</v>
+        <v>34148579231.46527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>34660441155.44178</v>
+        <v>34463231653.73932</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>34994806939.69703</v>
+        <v>34776089634.8423</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>35328698286.88603</v>
+        <v>35087450970.03257</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>35662363865.96963</v>
+        <v>35397619440.51663</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>35996017318.08472</v>
+        <v>35706876049.9399</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>36329809063.2273</v>
+        <v>36015450891.12436</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>36663825380.45606</v>
+        <v>36323521658.31583</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>36998089853.07294</v>
+        <v>36631213891.50945</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>37332570992.88574</v>
+        <v>36938608062.42795</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>37667206106.0986</v>
+        <v>37245762905.57403</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>38001934590.3625</v>
+        <v>37552733661.93135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>38336704864.25351</v>
+        <v>37859562111.96427</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>38671484974.19736</v>
+        <v>38166289110.16237</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>39006267790.19306</v>
+        <v>38472961721.16851</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>38779616234.23753</v>
       </c>
     </row>
   </sheetData>
